--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ECB4A1-81B5-4D04-917B-DAE682DCA9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED2580A-D510-4395-9E3F-D21D5643070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -279,6 +279,66 @@
   <si>
     <t>全天满课加作业-未学</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿照京东头部案例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯导航案例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用本地存储创建表格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript\电梯导航案例.html</t>
+  </si>
+  <si>
+    <t>JavaScript\仿京东头部案例.html</t>
+  </si>
+  <si>
+    <t>JavaScript\本地存储.html</t>
+  </si>
+  <si>
+    <t>JavaScript\利用本地存储创建表格\user模板.html</t>
+  </si>
+  <si>
+    <t>字符串替换正则表达式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的继承</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向对象案例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript\字符串替换正则.html</t>
+  </si>
+  <si>
+    <t>ES6\创建类.html</t>
+  </si>
+  <si>
+    <t>ES6\类的继承.html</t>
+  </si>
+  <si>
+    <t>ES6\面向对象案例\index.html</t>
   </si>
 </sst>
 </file>
@@ -388,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -416,6 +476,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -442,7 +511,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,6 +546,12 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -766,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1092,10 +1167,104 @@
       <c r="A15" s="12">
         <v>44878</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>44879</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>44880</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>44884</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{0ECB3D6A-DB42-46A8-B539-9DA6D12C7B58}"/>
@@ -1124,6 +1293,14 @@
     <hyperlink ref="J14" r:id="rId24" xr:uid="{2C613707-B397-44F4-8EE0-6C75E675EA08}"/>
     <hyperlink ref="K14" r:id="rId25" xr:uid="{6A98B592-63D9-4CB5-89EA-164E16F954D2}"/>
     <hyperlink ref="L14" r:id="rId26" xr:uid="{EB91145D-3426-4D91-8D20-187C61459C4C}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{E819A932-C8C8-4B30-A4CB-2CDC382C149E}"/>
+    <hyperlink ref="H15" r:id="rId28" xr:uid="{C69754B3-CC4A-4DDE-8080-DE556D6A3A29}"/>
+    <hyperlink ref="I15" r:id="rId29" xr:uid="{F372339F-C245-437A-814E-6CEECD63CAA6}"/>
+    <hyperlink ref="J15" r:id="rId30" xr:uid="{5E105F3D-CE8D-4350-B345-269256A09A61}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{6790ED54-29BA-430F-8E66-0E950EF3F039}"/>
+    <hyperlink ref="F16" r:id="rId32" xr:uid="{7358896C-F83B-4B06-A20B-E16C90525AF8}"/>
+    <hyperlink ref="G16" r:id="rId33" xr:uid="{FBA9E2B9-109F-49E5-9B65-3D533F1E9586}"/>
+    <hyperlink ref="H16" r:id="rId34" xr:uid="{BD49B83A-93B6-498A-AA31-4775FF9349A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED2580A-D510-4395-9E3F-D21D5643070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4582EE8-26C4-4C33-A31D-FED2EF460BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -339,6 +339,69 @@
   </si>
   <si>
     <t>ES6\面向对象案例\index.html</t>
+  </si>
+  <si>
+    <t>构造函数实例和静态成员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造对象原型对象prototype</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用父构造函数继承属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>call方法改变this指向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的本质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代 forEach</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>some</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用数组实现商品查询案例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\构造函数实例和静态成员.html</t>
+  </si>
+  <si>
+    <t>ES6\构造函数原型对象prototype.html</t>
+  </si>
+  <si>
+    <t>ES6\借用父构造函数继承属性.html</t>
+  </si>
+  <si>
+    <t>ES6\call改变this指向.html</t>
+  </si>
+  <si>
+    <t>ES6\类的本质.html</t>
+  </si>
+  <si>
+    <t>ES6\迭代\forEach.html</t>
+  </si>
+  <si>
+    <t>ES6\迭代\some.html</t>
+  </si>
+  <si>
+    <t>ES6\迭代\filter.html</t>
+  </si>
+  <si>
+    <t>ES6\迭代\利用数组实现商品查询案例.html</t>
   </si>
 </sst>
 </file>
@@ -448,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -485,6 +548,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -511,7 +583,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,6 +623,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1223,7 +1304,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="10" t="s">
         <v>32</v>
@@ -1235,35 +1316,97 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+    <row r="18" spans="1:11" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>44880</v>
       </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="B18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>44881</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="21" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>44882</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44883</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    <row r="23" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>44884</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1301,6 +1444,15 @@
     <hyperlink ref="F16" r:id="rId32" xr:uid="{7358896C-F83B-4B06-A20B-E16C90525AF8}"/>
     <hyperlink ref="G16" r:id="rId33" xr:uid="{FBA9E2B9-109F-49E5-9B65-3D533F1E9586}"/>
     <hyperlink ref="H16" r:id="rId34" xr:uid="{BD49B83A-93B6-498A-AA31-4775FF9349A7}"/>
+    <hyperlink ref="C19" r:id="rId35" xr:uid="{41B1B0D1-26DD-45A3-B90F-71775E65CC8C}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{56960DF6-1D23-489F-AA15-8B162179369A}"/>
+    <hyperlink ref="E19" r:id="rId37" xr:uid="{A97AEF85-609A-4133-9F92-69F9D78B197C}"/>
+    <hyperlink ref="F19" r:id="rId38" xr:uid="{DC175695-3FB9-4AEB-A756-849A58881555}"/>
+    <hyperlink ref="G19" r:id="rId39" xr:uid="{6E6EF170-CD30-4B22-B6D3-60D7D436B48A}"/>
+    <hyperlink ref="H19" r:id="rId40" xr:uid="{C518B135-5BE7-41BE-A42A-211B2BA8A6E0}"/>
+    <hyperlink ref="I19" r:id="rId41" xr:uid="{8A0D3567-4F8C-42AB-B778-E1714DFAD64C}"/>
+    <hyperlink ref="J19" r:id="rId42" xr:uid="{C4FC6E60-85AB-4F4F-B297-ECD591BDEB7D}"/>
+    <hyperlink ref="K19" r:id="rId43" xr:uid="{A7D3405E-A17F-4722-9A13-C45CDC05922B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4582EE8-26C4-4C33-A31D-FED2EF460BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831A99CF-3B1B-44E5-8415-0DB0DD66F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -402,6 +402,27 @@
   </si>
   <si>
     <t>ES6\迭代\利用数组实现商品查询案例.html</t>
+  </si>
+  <si>
+    <t>trim去除字符两边空格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的三种定义方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的六种调用方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\迭代\trim去除字符串两边空格.html</t>
+  </si>
+  <si>
+    <t>ES6\函数\函数的三种定义方式.html</t>
+  </si>
+  <si>
+    <t>ES6\函数\函数的六种调用方式.html</t>
   </si>
 </sst>
 </file>
@@ -924,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1385,6 +1406,27 @@
     <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44881</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -1453,6 +1495,9 @@
     <hyperlink ref="I19" r:id="rId41" xr:uid="{8A0D3567-4F8C-42AB-B778-E1714DFAD64C}"/>
     <hyperlink ref="J19" r:id="rId42" xr:uid="{C4FC6E60-85AB-4F4F-B297-ECD591BDEB7D}"/>
     <hyperlink ref="K19" r:id="rId43" xr:uid="{A7D3405E-A17F-4722-9A13-C45CDC05922B}"/>
+    <hyperlink ref="F20" r:id="rId44" xr:uid="{036AFDAF-5F89-45D2-B207-F963C85EBF5A}"/>
+    <hyperlink ref="G20" r:id="rId45" xr:uid="{E8282151-C351-4E24-91A5-FD2FCC1D02AA}"/>
+    <hyperlink ref="H20" r:id="rId46" xr:uid="{922916A8-AD5D-43E5-A425-1AD5F7C63A79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831A99CF-3B1B-44E5-8415-0DB0DD66F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CDBD6-B7F2-4381-A4FD-9C5F8BD21B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -423,6 +423,45 @@
   </si>
   <si>
     <t>ES6\函数\函数的六种调用方式.html</t>
+  </si>
+  <si>
+    <t>函数内this指向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply改变this指向(数组)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>call改变this指向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind改变this指向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\函数\函数内this指向.html</t>
+  </si>
+  <si>
+    <t>ES6\函数\apply改变this指向(数组).html</t>
+  </si>
+  <si>
+    <t>ES6\函数\call改变this指向.html</t>
+  </si>
+  <si>
+    <t>ES6\函数\bind改变this指向返回新对象.html</t>
+  </si>
+  <si>
+    <t>ES6\函数\严格模式.html</t>
   </si>
 </sst>
 </file>
@@ -943,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1364,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="10" t="s">
         <v>32</v>
@@ -1337,7 +1376,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>44880</v>
       </c>
@@ -1372,7 +1411,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="8" t="s">
@@ -1403,7 +1442,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44881</v>
       </c>
@@ -1429,17 +1468,53 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44882</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44883</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44884</v>
       </c>
@@ -1498,6 +1573,11 @@
     <hyperlink ref="F20" r:id="rId44" xr:uid="{036AFDAF-5F89-45D2-B207-F963C85EBF5A}"/>
     <hyperlink ref="G20" r:id="rId45" xr:uid="{E8282151-C351-4E24-91A5-FD2FCC1D02AA}"/>
     <hyperlink ref="H20" r:id="rId46" xr:uid="{922916A8-AD5D-43E5-A425-1AD5F7C63A79}"/>
+    <hyperlink ref="I21" r:id="rId47" xr:uid="{83F72BA8-6403-4B98-A419-14C49FF17744}"/>
+    <hyperlink ref="J21" r:id="rId48" xr:uid="{6745422C-FC56-4B45-A4D3-0F137A4549A3}"/>
+    <hyperlink ref="K21" r:id="rId49" xr:uid="{A30B521A-0C71-4169-9777-AE1486802AA8}"/>
+    <hyperlink ref="L21" r:id="rId50" xr:uid="{7B326CA1-CFAB-4611-9D0F-232CE6FAF333}"/>
+    <hyperlink ref="M21" r:id="rId51" xr:uid="{8E6005F1-50EB-4355-B310-1FBBFE36C8B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CDBD6-B7F2-4381-A4FD-9C5F8BD21B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91932393-19AC-4781-A2CE-68D415289550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -462,6 +462,58 @@
   </si>
   <si>
     <t>ES6\函数\严格模式.html</t>
+  </si>
+  <si>
+    <t>ES6</t>
+  </si>
+  <si>
+    <t>闭包的作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包的应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅拷贝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深拷贝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…扩展运算符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array.from</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\函数\闭包的作用.html</t>
+  </si>
+  <si>
+    <t>ES6\函数\闭包的应用.html</t>
+  </si>
+  <si>
+    <t>ES6\浅拷贝.html</t>
+  </si>
+  <si>
+    <t>ES6\深拷贝.html</t>
+  </si>
+  <si>
+    <t>ES6\数组扩展\扩展运算符.html</t>
+  </si>
+  <si>
+    <t>ES6\数组扩展\Array.from.html</t>
+  </si>
+  <si>
+    <t>ES6\模板字符串\01.html</t>
   </si>
 </sst>
 </file>
@@ -982,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1442,11 +1494,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44881</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C20" t="s">
@@ -1468,11 +1520,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44882</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C21" t="s">
@@ -1509,15 +1561,64 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44883</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="B22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>44884</v>
       </c>
+      <c r="B24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1578,6 +1679,13 @@
     <hyperlink ref="K21" r:id="rId49" xr:uid="{A30B521A-0C71-4169-9777-AE1486802AA8}"/>
     <hyperlink ref="L21" r:id="rId50" xr:uid="{7B326CA1-CFAB-4611-9D0F-232CE6FAF333}"/>
     <hyperlink ref="M21" r:id="rId51" xr:uid="{8E6005F1-50EB-4355-B310-1FBBFE36C8B3}"/>
+    <hyperlink ref="C23" r:id="rId52" xr:uid="{557C72A8-4FF5-4DD4-B79A-F8C8035EB266}"/>
+    <hyperlink ref="D23" r:id="rId53" xr:uid="{0D746698-3511-407F-8578-2A9951295640}"/>
+    <hyperlink ref="E23" r:id="rId54" xr:uid="{D5413623-1B2D-49B7-84C8-EC3D7DBFB7EF}"/>
+    <hyperlink ref="F23" r:id="rId55" xr:uid="{5E01B70A-ED20-4753-8E81-33A45F6016BB}"/>
+    <hyperlink ref="G23" r:id="rId56" xr:uid="{23B174AF-A376-465D-A199-77CFC7CB2481}"/>
+    <hyperlink ref="H23" r:id="rId57" xr:uid="{D44E9C62-F3F1-44EA-9D6E-F9F6083C8727}"/>
+    <hyperlink ref="I23" r:id="rId58" xr:uid="{0EB91744-9CEB-4942-8F6C-7DA901A1AAD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91932393-19AC-4781-A2CE-68D415289550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A987B23-718C-4FE8-9FD0-FF5876F312B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="150">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -514,6 +514,52 @@
   </si>
   <si>
     <t>ES6\模板字符串\01.html</t>
+  </si>
+  <si>
+    <t>函数扩展</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭头函数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象扩展Object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol用处</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\函数\函数扩展.html</t>
+  </si>
+  <si>
+    <t>ES6\函数\箭头函数.html</t>
+  </si>
+  <si>
+    <t>ES6\对象扩展\01.html</t>
+  </si>
+  <si>
+    <t>ES6\Symbol\Symbol.html</t>
+  </si>
+  <si>
+    <t>ES6\Symbol\Symbol应用.html</t>
+  </si>
+  <si>
+    <t>ES6\Symbol\Symbol用处.html</t>
+  </si>
+  <si>
+    <t>今天写期末作业，未学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -669,6 +715,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -695,7 +750,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,6 +799,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1474,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="10" t="s">
         <v>32</v>
@@ -1428,7 +1486,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>44880</v>
       </c>
@@ -1463,7 +1521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="8" t="s">
@@ -1494,7 +1552,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44881</v>
       </c>
@@ -1520,7 +1578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44882</v>
       </c>
@@ -1561,11 +1619,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <v>44883</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -1590,8 +1648,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10"/>
+    <row r="23" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="8" t="s">
         <v>130</v>
       </c>
@@ -1614,17 +1673,100 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>44884</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>44885</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>44891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>44892</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1686,6 +1828,12 @@
     <hyperlink ref="G23" r:id="rId56" xr:uid="{23B174AF-A376-465D-A199-77CFC7CB2481}"/>
     <hyperlink ref="H23" r:id="rId57" xr:uid="{D44E9C62-F3F1-44EA-9D6E-F9F6083C8727}"/>
     <hyperlink ref="I23" r:id="rId58" xr:uid="{0EB91744-9CEB-4942-8F6C-7DA901A1AAD0}"/>
+    <hyperlink ref="I24" r:id="rId59" xr:uid="{062C13C1-A94B-4758-8E55-858646ECF70A}"/>
+    <hyperlink ref="J24" r:id="rId60" xr:uid="{0DB59CA5-B232-4538-8E89-B21241BEBEA8}"/>
+    <hyperlink ref="K24" r:id="rId61" xr:uid="{41A6AF5B-E9FC-4987-AD9C-B9CBEFD4B5AD}"/>
+    <hyperlink ref="L24" r:id="rId62" xr:uid="{54A4E9F9-4933-45FF-840B-CE3A7DB928B1}"/>
+    <hyperlink ref="M24" r:id="rId63" xr:uid="{13B7A9F9-4507-485F-B2F7-D8AF87104CDC}"/>
+    <hyperlink ref="N24" r:id="rId64" xr:uid="{55CA7901-78D8-43D3-B29D-D77E6E4CF227}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A987B23-718C-4FE8-9FD0-FF5876F312B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE157932-3814-48FE-9C5C-4DA67B9AF40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="151">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -559,6 +559,10 @@
   </si>
   <si>
     <t>今天写期末作业，未学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直写期末作业</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1099,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1743,6 +1747,9 @@
     <row r="29" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>44889</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE157932-3814-48FE-9C5C-4DA67B9AF40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50823BEB-6F03-45DC-BA4F-7440BD11FA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4224" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -564,6 +564,34 @@
   <si>
     <t>一直写期末作业</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iterator迭代器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对象添加迭代器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set属性和方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用set给复杂数据类型去重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\iterator迭代器\01.html</t>
+  </si>
+  <si>
+    <t>ES6\iterator迭代器\给对象添加迭代器.html</t>
+  </si>
+  <si>
+    <t>ES6\Set属性和方法\set属性和方法.html</t>
+  </si>
+  <si>
+    <t>ES6\Set属性和方法\利用set对复杂类型去重.html</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1760,6 +1788,30 @@
     <row r="31" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>44891</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -1841,6 +1893,10 @@
     <hyperlink ref="L24" r:id="rId62" xr:uid="{54A4E9F9-4933-45FF-840B-CE3A7DB928B1}"/>
     <hyperlink ref="M24" r:id="rId63" xr:uid="{13B7A9F9-4507-485F-B2F7-D8AF87104CDC}"/>
     <hyperlink ref="N24" r:id="rId64" xr:uid="{55CA7901-78D8-43D3-B29D-D77E6E4CF227}"/>
+    <hyperlink ref="G31" r:id="rId65" xr:uid="{6931781F-7DF6-4B1E-A3A5-0A40C845AF64}"/>
+    <hyperlink ref="H31" r:id="rId66" xr:uid="{64B12D6A-14D4-456E-9B13-9E6DF697C854}"/>
+    <hyperlink ref="I31" r:id="rId67" xr:uid="{AA940592-151D-456F-AC28-74078FC8C086}"/>
+    <hyperlink ref="J31" r:id="rId68" xr:uid="{63E5CEC2-EB8E-431E-927E-23FE31B8565B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50823BEB-6F03-45DC-BA4F-7440BD11FA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F149B3-1E5F-4DC8-A85C-D735D96A0C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="179">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -592,6 +592,76 @@
   </si>
   <si>
     <t>ES6\Set属性和方法\利用set对复杂类型去重.html</t>
+  </si>
+  <si>
+    <t>Map属性和方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxy代理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxyset和map使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxy代理ES5之前用法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reflect映射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reflect配合Proxy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reflect的set和map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\Map\Map属性和方法.html</t>
+  </si>
+  <si>
+    <t>ES6\proxy代理\Proxy代理.html</t>
+  </si>
+  <si>
+    <t>ES6\proxy代理\Set和Map代理.html</t>
+  </si>
+  <si>
+    <t>ES6\proxy代理\ES5之前.html</t>
+  </si>
+  <si>
+    <t>ES6\Reflect映射\命令式改变函数行为.html</t>
+  </si>
+  <si>
+    <t>ES6\Reflect映射\配合Proxy.html</t>
+  </si>
+  <si>
+    <t>ES6\Reflect映射\get和set.html</t>
+  </si>
+  <si>
+    <t>Object与Reflect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\Reflect映射\Object与Reflect.html</t>
+  </si>
+  <si>
+    <t>Promise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\promise\promise使用.html</t>
+  </si>
+  <si>
+    <t>回调地狱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\promise\回调地狱.html</t>
   </si>
 </sst>
 </file>
@@ -782,7 +852,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,6 +904,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1789,6 +1862,9 @@
       <c r="A31" s="12">
         <v>44891</v>
       </c>
+      <c r="B31" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="C31" t="s">
         <v>151</v>
       </c>
@@ -1815,12 +1891,124 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="15">
         <v>44892</v>
       </c>
+      <c r="B32" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" t="s">
+        <v>165</v>
+      </c>
+      <c r="J32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>44893</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>44899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>44900</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -1897,6 +2085,16 @@
     <hyperlink ref="H31" r:id="rId66" xr:uid="{64B12D6A-14D4-456E-9B13-9E6DF697C854}"/>
     <hyperlink ref="I31" r:id="rId67" xr:uid="{AA940592-151D-456F-AC28-74078FC8C086}"/>
     <hyperlink ref="J31" r:id="rId68" xr:uid="{63E5CEC2-EB8E-431E-927E-23FE31B8565B}"/>
+    <hyperlink ref="C33" r:id="rId69" xr:uid="{A443D197-FCAD-47E1-8C1E-0DF0BFB3FF26}"/>
+    <hyperlink ref="D33" r:id="rId70" xr:uid="{1660690F-541A-452D-9D66-BC84553263F5}"/>
+    <hyperlink ref="E33" r:id="rId71" xr:uid="{E2AF71BF-C98E-4A63-94F3-667AAD9590E3}"/>
+    <hyperlink ref="F33" r:id="rId72" xr:uid="{D8BE5819-0511-46CA-9A28-C3F00343C721}"/>
+    <hyperlink ref="G33" r:id="rId73" xr:uid="{F17327DB-A131-437F-BE22-F4DBC5E60C39}"/>
+    <hyperlink ref="H33" r:id="rId74" xr:uid="{EDCE3432-A818-4483-9B30-8E6AEA7837B9}"/>
+    <hyperlink ref="I33" r:id="rId75" xr:uid="{493BCD76-A51F-4DC2-9842-970D59C9759E}"/>
+    <hyperlink ref="J33" r:id="rId76" xr:uid="{91978505-FDAA-4979-9AA8-CC76DD1D87DB}"/>
+    <hyperlink ref="D34" r:id="rId77" xr:uid="{D732CF79-A821-4440-9B08-6685B746F8F3}"/>
+    <hyperlink ref="F34" r:id="rId78" xr:uid="{16FFF7F3-FA01-435E-9F02-3AC6EDF71364}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F149B3-1E5F-4DC8-A85C-D735D96A0C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2304F6-C606-4282-AA87-8961970B0D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="181">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -662,6 +662,13 @@
   </si>
   <si>
     <t>ES6\promise\回调地狱.html</t>
+  </si>
+  <si>
+    <t>Generator理解异步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\Generator函数理解异步\Generator.html</t>
   </si>
 </sst>
 </file>
@@ -888,15 +895,18 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,9 +914,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,7 +1207,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1552,7 +1559,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="16">
         <v>44879</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1580,7 +1587,7 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1592,10 +1599,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>44880</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C18" t="s">
@@ -1627,8 +1634,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
@@ -1725,10 +1732,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="19">
         <v>44883</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -1754,8 +1761,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="8" t="s">
         <v>130</v>
       </c>
@@ -1891,10 +1898,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>44892</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
@@ -1923,8 +1930,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="8" t="s">
         <v>166</v>
       </c>
@@ -1978,6 +1985,15 @@
     <row r="36" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>44895</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2095,6 +2111,7 @@
     <hyperlink ref="J33" r:id="rId76" xr:uid="{91978505-FDAA-4979-9AA8-CC76DD1D87DB}"/>
     <hyperlink ref="D34" r:id="rId77" xr:uid="{D732CF79-A821-4440-9B08-6685B746F8F3}"/>
     <hyperlink ref="F34" r:id="rId78" xr:uid="{16FFF7F3-FA01-435E-9F02-3AC6EDF71364}"/>
+    <hyperlink ref="D36" r:id="rId79" xr:uid="{51DFC00D-C90F-4528-958F-892F31C8FBC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2304F6-C606-4282-AA87-8961970B0D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE4F1D6-DA0C-4A59-B59C-A8D71CDB1C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="183">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -669,6 +669,13 @@
   </si>
   <si>
     <t>ES6\Generator函数理解异步\Generator.html</t>
+  </si>
+  <si>
+    <t>类继承的应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\类的应用.html</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1214,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1999,6 +2006,15 @@
     <row r="37" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>44896</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2112,6 +2128,7 @@
     <hyperlink ref="D34" r:id="rId77" xr:uid="{D732CF79-A821-4440-9B08-6685B746F8F3}"/>
     <hyperlink ref="F34" r:id="rId78" xr:uid="{16FFF7F3-FA01-435E-9F02-3AC6EDF71364}"/>
     <hyperlink ref="D36" r:id="rId79" xr:uid="{51DFC00D-C90F-4528-958F-892F31C8FBC8}"/>
+    <hyperlink ref="D37" r:id="rId80" xr:uid="{6CCB82D5-9C09-4174-842D-A504DB1E8525}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE4F1D6-DA0C-4A59-B59C-A8D71CDB1C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E6C4D-5957-4D23-92F1-B98E0FD0DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="195">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -676,6 +676,48 @@
   </si>
   <si>
     <t>ES6\类的应用.html</t>
+  </si>
+  <si>
+    <t>module模块化引入方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>module 应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodejs模块化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES7求幂和数组includes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>async和await</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>async和await应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\Module 模块化\引入方式.html</t>
+  </si>
+  <si>
+    <t>ES6\Module 模块化\应用.html</t>
+  </si>
+  <si>
+    <t>ES6\Nodejs模块化\index.js</t>
+  </si>
+  <si>
+    <t>ES6\ES7求幂和数组includes\01.html</t>
+  </si>
+  <si>
+    <t>ES6\async和await\async和await使用.html</t>
+  </si>
+  <si>
+    <t>ES6\async和await\应用.html</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -2017,28 +2059,73 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+    <row r="38" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>44897</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
-        <v>44898</v>
+      <c r="B38" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
         <v>44899</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+    <row r="42" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
         <v>44900</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A16:A17"/>
@@ -2129,6 +2216,12 @@
     <hyperlink ref="F34" r:id="rId78" xr:uid="{16FFF7F3-FA01-435E-9F02-3AC6EDF71364}"/>
     <hyperlink ref="D36" r:id="rId79" xr:uid="{51DFC00D-C90F-4528-958F-892F31C8FBC8}"/>
     <hyperlink ref="D37" r:id="rId80" xr:uid="{6CCB82D5-9C09-4174-842D-A504DB1E8525}"/>
+    <hyperlink ref="C39" r:id="rId81" xr:uid="{ABB7512E-FEC4-4E58-8A6B-C5396FD3C6A7}"/>
+    <hyperlink ref="D39" r:id="rId82" xr:uid="{988AC2F9-CC34-46D3-A98D-534FEAB6D07E}"/>
+    <hyperlink ref="E39" r:id="rId83" xr:uid="{69AA4F0C-E98C-49F4-B5B2-BF9FD4AD1468}"/>
+    <hyperlink ref="F39" r:id="rId84" xr:uid="{2767C6E7-C6A8-4554-8DDD-E7B14B045802}"/>
+    <hyperlink ref="G39" r:id="rId85" xr:uid="{9C8ED678-AE78-49E8-A7F2-2045138586D8}"/>
+    <hyperlink ref="H39" r:id="rId86" xr:uid="{709B25A0-F639-4689-B083-2454BF7C4A45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E6C4D-5957-4D23-92F1-B98E0FD0DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17A2946-A74D-4C90-8D08-C453349B1383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="209">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -718,6 +718,56 @@
   </si>
   <si>
     <t>ES6\async和await\应用.html</t>
+  </si>
+  <si>
+    <t>ES8~9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6~7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES8对象扩展 getOwnPropertyDescriptors</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES8字符串扩展 padStart 补足位数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES9对象扩展运算符…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES9正则扩展</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES9 promise.finally属性 必执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES9异步迭代</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\ES8对象扩展,字符串扩展\01.html</t>
+  </si>
+  <si>
+    <t>ES6\ES8对象扩展,字符串扩展\字符串扩展.html</t>
+  </si>
+  <si>
+    <t>ES6\ES9对象扩展运算符三个点\对象扩展运算符.html</t>
+  </si>
+  <si>
+    <t>ES6\ES9正则扩展\正则扩展捕获.html</t>
+  </si>
+  <si>
+    <t>ES6\ES9 promise.finally属性\promise.finally属性不管成功与否都执行.html</t>
+  </si>
+  <si>
+    <t>ES6\ES9异步迭代\把迭代内容放到数组中.html</t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -2064,7 +2114,7 @@
         <v>44897</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
         <v>183</v>
@@ -2107,23 +2157,68 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+    <row r="40" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>44898</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="B40" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
         <v>44899</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+    <row r="43" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
         <v>44900</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B32:B33"/>
@@ -2222,6 +2317,12 @@
     <hyperlink ref="F39" r:id="rId84" xr:uid="{2767C6E7-C6A8-4554-8DDD-E7B14B045802}"/>
     <hyperlink ref="G39" r:id="rId85" xr:uid="{9C8ED678-AE78-49E8-A7F2-2045138586D8}"/>
     <hyperlink ref="H39" r:id="rId86" xr:uid="{709B25A0-F639-4689-B083-2454BF7C4A45}"/>
+    <hyperlink ref="C41" r:id="rId87" xr:uid="{D5C2764E-6D25-44B0-8490-3C0AA3863C2E}"/>
+    <hyperlink ref="D41" r:id="rId88" xr:uid="{B16CA126-C3CF-489A-9028-6108460F106B}"/>
+    <hyperlink ref="E41" r:id="rId89" xr:uid="{08E9419F-9368-4312-85DF-5CCCB2BC9CEC}"/>
+    <hyperlink ref="F41" r:id="rId90" xr:uid="{A4E286C6-2175-4E23-B611-50BD4031AFDF}"/>
+    <hyperlink ref="G41" r:id="rId91" xr:uid="{FCC80052-60BB-4577-B42F-4A665A5D84D6}"/>
+    <hyperlink ref="H41" r:id="rId92" xr:uid="{ECDE3874-39EE-4EC1-B600-A9CC7631FCD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17A2946-A74D-4C90-8D08-C453349B1383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79B87B7-E2E9-423A-A184-0AD659115EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,13 +994,13 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1303,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1686,7 +1686,7 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1698,7 +1698,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>44880</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="8" t="s">
         <v>130</v>
@@ -1997,10 +1997,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>44892</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
@@ -2029,8 +2029,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="8" t="s">
         <v>166</v>
       </c>
@@ -2110,10 +2110,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>44897</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C38" t="s">
@@ -2136,8 +2136,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
@@ -2158,10 +2158,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>44898</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C40" t="s">
@@ -2184,8 +2184,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="8" t="s">
         <v>203</v>
       </c>
@@ -2210,24 +2210,34 @@
         <v>44899</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>44900</v>
       </c>
     </row>
+    <row r="44" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>44902</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79B87B7-E2E9-423A-A184-0AD659115EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB90C0E-E023-4562-9E71-2AAAE3BFF075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="220">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -768,6 +768,45 @@
   </si>
   <si>
     <t>ES6\ES9异步迭代\把迭代内容放到数组中.html</t>
+  </si>
+  <si>
+    <t>ES10~11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trim去除字符两边空格trimeStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES10数组flat Symbol description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES10 Object.fromEntries</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES11 module动态引入import</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>promise.allSettled</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\ES10其他\trim()方法去除左右两边空格.html</t>
+  </si>
+  <si>
+    <t>ES6\ES10其他\其他.html</t>
+  </si>
+  <si>
+    <t>ES6\ES10Object.fromEntries把数组变成对象\1.html</t>
+  </si>
+  <si>
+    <t>ES6\ES11 module新增动态引入\动态引入import.html</t>
+  </si>
+  <si>
+    <t>ES6\ES11 promise.allSettled\promise.allSettled.html</t>
   </si>
 </sst>
 </file>
@@ -994,16 +1033,13 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +1049,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1697,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="13">
         <v>44879</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1698,10 +1737,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="15">
         <v>44880</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C18" t="s">
@@ -1733,8 +1772,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
@@ -1831,10 +1870,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>44883</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -1861,7 +1900,7 @@
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="8" t="s">
         <v>130</v>
       </c>
@@ -1997,10 +2036,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="15">
         <v>44892</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
@@ -2030,7 +2069,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="8" t="s">
         <v>166</v>
       </c>
@@ -2110,10 +2149,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="15">
         <v>44897</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="19" t="s">
         <v>196</v>
       </c>
       <c r="C38" t="s">
@@ -2137,7 +2176,7 @@
     </row>
     <row r="39" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
@@ -2158,10 +2197,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="15">
         <v>44898</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="19" t="s">
         <v>195</v>
       </c>
       <c r="C40" t="s">
@@ -2185,7 +2224,7 @@
     </row>
     <row r="41" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="8" t="s">
         <v>203</v>
       </c>
@@ -2214,30 +2253,66 @@
       <c r="A43" s="12">
         <v>44900</v>
       </c>
+      <c r="B43" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="44" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="12"/>
+      <c r="C44" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>44901</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+    <row r="46" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
         <v>44902</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2333,6 +2408,11 @@
     <hyperlink ref="F41" r:id="rId90" xr:uid="{A4E286C6-2175-4E23-B611-50BD4031AFDF}"/>
     <hyperlink ref="G41" r:id="rId91" xr:uid="{FCC80052-60BB-4577-B42F-4A665A5D84D6}"/>
     <hyperlink ref="H41" r:id="rId92" xr:uid="{ECDE3874-39EE-4EC1-B600-A9CC7631FCD8}"/>
+    <hyperlink ref="C44" r:id="rId93" xr:uid="{0DC4DE71-4E3A-49A6-89E6-764A15F2AF82}"/>
+    <hyperlink ref="D44" r:id="rId94" xr:uid="{23AAD26A-C65E-46AF-8AFA-47753B9A5FD0}"/>
+    <hyperlink ref="E44" r:id="rId95" xr:uid="{12B9F231-AEBF-48D6-AE9F-30C416DBFA9A}"/>
+    <hyperlink ref="F44" r:id="rId96" xr:uid="{86AD50BB-001C-437E-993D-2A179D73663F}"/>
+    <hyperlink ref="G44" r:id="rId97" xr:uid="{DA1722A1-DBD5-451B-A065-6B9CBA260669}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB90C0E-E023-4562-9E71-2AAAE3BFF075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EB1446-2C6F-4F39-9512-EFF73A7CA4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="239">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -807,6 +807,73 @@
   </si>
   <si>
     <t>ES6\ES11 promise.allSettled\promise.allSettled.html</t>
+  </si>
+  <si>
+    <t>ES11~12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES11 bigint 超大数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串matchAll匹配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>??空值合并运算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?. 可选链操作符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalThis最高环境指向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES12 新增逻辑操作符 ??=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串replaceAll方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值分隔显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>promise.any方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\ES11 BigInt\BigInt.html</t>
+  </si>
+  <si>
+    <t>ES6\ES11字符串matchAll\字符串matchAll方法.html</t>
+  </si>
+  <si>
+    <t>ES6\ES11 ？？空值合并运算符 可选链操作符\双问号空值合并运算符.html</t>
+  </si>
+  <si>
+    <t>ES6\ES11 ？？空值合并运算符 可选链操作符\问号点可选链操作符.html</t>
+  </si>
+  <si>
+    <t>ES6\ES11 globalThis\globalThis.html</t>
+  </si>
+  <si>
+    <t>ES6\ES12\新增逻辑操作符.html</t>
+  </si>
+  <si>
+    <t>ES6\ES12\字符串replaceAll方法.html</t>
+  </si>
+  <si>
+    <t>ES6\ES12\字符分割符_.html</t>
+  </si>
+  <si>
+    <t>ES6\ES12\promise.any.html</t>
   </si>
 </sst>
 </file>
@@ -1033,13 +1100,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1049,9 +1119,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1697,7 +1764,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="16">
         <v>44879</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1737,10 +1804,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>44880</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C18" t="s">
@@ -1772,8 +1839,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
@@ -1870,10 +1937,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="19">
         <v>44883</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -1900,7 +1967,7 @@
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="8" t="s">
         <v>130</v>
       </c>
@@ -2036,10 +2103,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>44892</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
@@ -2067,9 +2134,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="8" t="s">
         <v>166</v>
       </c>
@@ -2095,7 +2162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>44893</v>
       </c>
@@ -2115,12 +2182,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>44894</v>
       </c>
     </row>
-    <row r="36" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>44895</v>
       </c>
@@ -2134,7 +2201,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>44896</v>
       </c>
@@ -2148,11 +2215,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+    <row r="38" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>44897</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C38" t="s">
@@ -2174,9 +2241,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
@@ -2196,11 +2263,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+    <row r="40" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>44898</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C40" t="s">
@@ -2222,9 +2289,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="8" t="s">
         <v>203</v>
       </c>
@@ -2244,12 +2311,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>44899</v>
       </c>
     </row>
-    <row r="43" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>44900</v>
       </c>
@@ -2272,7 +2339,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="C44" s="8" t="s">
         <v>215</v>
@@ -2290,29 +2357,89 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>44901</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="B45" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" t="s">
+        <v>226</v>
+      </c>
+      <c r="I45" t="s">
+        <v>227</v>
+      </c>
+      <c r="J45" t="s">
+        <v>228</v>
+      </c>
+      <c r="K45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="C46" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
         <v>44902</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2413,6 +2540,15 @@
     <hyperlink ref="E44" r:id="rId95" xr:uid="{12B9F231-AEBF-48D6-AE9F-30C416DBFA9A}"/>
     <hyperlink ref="F44" r:id="rId96" xr:uid="{86AD50BB-001C-437E-993D-2A179D73663F}"/>
     <hyperlink ref="G44" r:id="rId97" xr:uid="{DA1722A1-DBD5-451B-A065-6B9CBA260669}"/>
+    <hyperlink ref="C46" r:id="rId98" xr:uid="{22B5256F-70BA-433C-8F99-D26053FDE2F2}"/>
+    <hyperlink ref="D46" r:id="rId99" xr:uid="{8AD734AB-7278-483A-BC6B-BA94100AE7DC}"/>
+    <hyperlink ref="E46" r:id="rId100" xr:uid="{7D7AA55A-702C-447A-B49A-D8DC844D1401}"/>
+    <hyperlink ref="F46" r:id="rId101" xr:uid="{CCE3C0A5-D39D-43EF-9FC1-C669B1ACCBA3}"/>
+    <hyperlink ref="G46" r:id="rId102" xr:uid="{2CC0A88D-9D46-4F11-B85A-6F9AA94AFD0C}"/>
+    <hyperlink ref="H46" r:id="rId103" xr:uid="{D299B36E-23E1-4FC7-AA81-CBABD05FBC0C}"/>
+    <hyperlink ref="I46" r:id="rId104" xr:uid="{AA16E22F-1727-4259-9D46-5EBE512C4344}"/>
+    <hyperlink ref="J46" r:id="rId105" xr:uid="{F7477E7F-1B10-4C39-AD05-17E519B38F1D}"/>
+    <hyperlink ref="K46" r:id="rId106" xr:uid="{ADF07CF7-B0F8-40E3-BA12-AA7FA458DADD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EB1446-2C6F-4F39-9512-EFF73A7CA4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F4580-3998-499E-9824-5C01E7632866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,16 +1100,13 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1119,6 +1116,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="13">
         <v>44879</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1804,10 +1804,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="15">
         <v>44880</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C18" t="s">
@@ -1839,8 +1839,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
@@ -1937,10 +1937,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>44883</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -1967,7 +1967,7 @@
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="8" t="s">
         <v>130</v>
       </c>
@@ -2103,10 +2103,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="15">
         <v>44892</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
@@ -2136,7 +2136,7 @@
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="8" t="s">
         <v>166</v>
       </c>
@@ -2216,10 +2216,10 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="15">
         <v>44897</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="19" t="s">
         <v>196</v>
       </c>
       <c r="C38" t="s">
@@ -2243,7 +2243,7 @@
     </row>
     <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
@@ -2264,10 +2264,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="15">
         <v>44898</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="19" t="s">
         <v>195</v>
       </c>
       <c r="C40" t="s">
@@ -2291,7 +2291,7 @@
     </row>
     <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="8" t="s">
         <v>203</v>
       </c>
@@ -2422,24 +2422,34 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>44902</v>
       </c>
     </row>
+    <row r="48" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>44904</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F4580-3998-499E-9824-5C01E7632866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9952B2-29FC-407A-9347-92F19A7E24A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="248">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -874,6 +874,38 @@
   </si>
   <si>
     <t>ES6\ES12\promise.any.html</t>
+  </si>
+  <si>
+    <t>ES12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalizationRehistry 注册表清理器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalizationRehistry 应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeakMap 方便垃圾回收</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeakRefs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\ES12 FinalizationRegistry\清理器注册表FinalizationRegistry.html</t>
+  </si>
+  <si>
+    <t>ES6\ES12 FinalizationRegistry\应用.html</t>
+  </si>
+  <si>
+    <t>ES6\ES12WeakRefs\WeakMap,WeakSet.html</t>
+  </si>
+  <si>
+    <t>ES6\ES12WeakRefs\WeakRefs.html</t>
   </si>
 </sst>
 </file>
@@ -1100,13 +1132,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1116,9 +1151,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1411,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1764,7 +1796,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="16">
         <v>44879</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1804,10 +1836,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>44880</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C18" t="s">
@@ -1839,8 +1871,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
@@ -1937,10 +1969,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="19">
         <v>44883</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -1967,7 +1999,7 @@
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="8" t="s">
         <v>130</v>
       </c>
@@ -2103,10 +2135,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>44892</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
@@ -2136,7 +2168,7 @@
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="8" t="s">
         <v>166</v>
       </c>
@@ -2216,10 +2248,10 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="13">
         <v>44897</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C38" t="s">
@@ -2243,7 +2275,7 @@
     </row>
     <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
@@ -2264,10 +2296,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <v>44898</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C40" t="s">
@@ -2291,7 +2323,7 @@
     </row>
     <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="8" t="s">
         <v>203</v>
       </c>
@@ -2431,6 +2463,33 @@
       <c r="A48" s="12">
         <v>44903</v>
       </c>
+      <c r="B48" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="49" spans="1:1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
@@ -2439,17 +2498,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2559,6 +2618,10 @@
     <hyperlink ref="I46" r:id="rId104" xr:uid="{AA16E22F-1727-4259-9D46-5EBE512C4344}"/>
     <hyperlink ref="J46" r:id="rId105" xr:uid="{F7477E7F-1B10-4C39-AD05-17E519B38F1D}"/>
     <hyperlink ref="K46" r:id="rId106" xr:uid="{ADF07CF7-B0F8-40E3-BA12-AA7FA458DADD}"/>
+    <hyperlink ref="G48" r:id="rId107" xr:uid="{3DE01A1F-9C39-45B3-AA02-CB4322F66E42}"/>
+    <hyperlink ref="H48" r:id="rId108" xr:uid="{22071246-04B0-4F97-9D6F-E1FE59E214B7}"/>
+    <hyperlink ref="I48" r:id="rId109" xr:uid="{FD3879B0-AB04-4453-8434-77FBE0E766E2}"/>
+    <hyperlink ref="J48" r:id="rId110" xr:uid="{323EFDF2-54E2-42EF-891F-C0F181C73070}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9952B2-29FC-407A-9347-92F19A7E24A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A04DCA-487D-4A2A-BF5B-8BA55E71186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="263">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -906,6 +906,55 @@
   </si>
   <si>
     <t>ES6\ES12WeakRefs\WeakRefs.html</t>
+  </si>
+  <si>
+    <t>ES13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最外层await</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\ES13 最外层await\最外层await.html</t>
+  </si>
+  <si>
+    <t>ES13静态成员的私有属性和方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\ES13类的新特性\静态成员的私有属性和方法.html</t>
+  </si>
+  <si>
+    <t>私有属性和方法</t>
+  </si>
+  <si>
+    <t>ES6\ES13类的新特性\私有属性和方法.html</t>
+  </si>
+  <si>
+    <t>数组at函数</t>
+  </si>
+  <si>
+    <t>ES6\ES13其他\数组at函数.html</t>
+  </si>
+  <si>
+    <t>正则匹配开始索引和结束索引</t>
+  </si>
+  <si>
+    <t>ES6\ES13其他\正则匹配开始索引和结束索引.html</t>
+  </si>
+  <si>
+    <t>error对象的Cause</t>
+  </si>
+  <si>
+    <t>ES6\ES13其他\error对象的Cause.html</t>
+  </si>
+  <si>
+    <t>findlast查找倒数的元素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES6\ES13其他\findlast.html</t>
   </si>
 </sst>
 </file>
@@ -1132,16 +1181,13 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1151,6 +1197,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1796,7 +1845,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="13">
         <v>44879</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1836,10 +1885,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="15">
         <v>44880</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C18" t="s">
@@ -1871,8 +1920,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
@@ -1969,10 +2018,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>44883</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -1999,7 +2048,7 @@
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="8" t="s">
         <v>130</v>
       </c>
@@ -2135,10 +2184,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="15">
         <v>44892</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
@@ -2168,7 +2217,7 @@
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="8" t="s">
         <v>166</v>
       </c>
@@ -2248,10 +2297,10 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="15">
         <v>44897</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="19" t="s">
         <v>196</v>
       </c>
       <c r="C38" t="s">
@@ -2275,7 +2324,7 @@
     </row>
     <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
@@ -2296,10 +2345,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="15">
         <v>44898</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="19" t="s">
         <v>195</v>
       </c>
       <c r="C40" t="s">
@@ -2323,7 +2372,7 @@
     </row>
     <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="8" t="s">
         <v>203</v>
       </c>
@@ -2491,24 +2540,127 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>44904</v>
       </c>
     </row>
+    <row r="50" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>44913</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" t="s">
+        <v>251</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G58" t="s">
+        <v>253</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>44914</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" t="s">
+        <v>255</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" t="s">
+        <v>257</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I59" t="s">
+        <v>261</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>44915</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2622,6 +2774,13 @@
     <hyperlink ref="H48" r:id="rId108" xr:uid="{22071246-04B0-4F97-9D6F-E1FE59E214B7}"/>
     <hyperlink ref="I48" r:id="rId109" xr:uid="{FD3879B0-AB04-4453-8434-77FBE0E766E2}"/>
     <hyperlink ref="J48" r:id="rId110" xr:uid="{323EFDF2-54E2-42EF-891F-C0F181C73070}"/>
+    <hyperlink ref="D58" r:id="rId111" xr:uid="{548FA8AC-01BD-4FCF-9259-C526A684743A}"/>
+    <hyperlink ref="F58" r:id="rId112" xr:uid="{B5334C37-ACF6-49E6-95DC-8338AA502C27}"/>
+    <hyperlink ref="H58" r:id="rId113" xr:uid="{8A8645A6-8CD3-41B1-B93B-45E0CD9D2DEA}"/>
+    <hyperlink ref="D59" r:id="rId114" xr:uid="{A98B6F67-9A3D-4707-86C0-76E0958E3752}"/>
+    <hyperlink ref="F59" r:id="rId115" xr:uid="{4BC0AFD8-22A1-4430-92CF-944B0CA40514}"/>
+    <hyperlink ref="H59" r:id="rId116" xr:uid="{C05723BC-937A-4434-B89A-CA8C126D4E37}"/>
+    <hyperlink ref="J59" r:id="rId117" xr:uid="{60504B03-C8DD-4558-AFAB-17FBFFE2E9CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\前端学习\web前端学习\web_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A04DCA-487D-4A2A-BF5B-8BA55E71186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E0B8E-2908-45E5-BB4C-99DD69460552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1305" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="274">
   <si>
     <t>css</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -955,6 +955,45 @@
   </si>
   <si>
     <t>ES6\ES13其他\findlast.html</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络超时和网络异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复请求发送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax\原生ajax\1-GET.html</t>
+  </si>
+  <si>
+    <t>ajax\原生ajax\2-POST.html</t>
+  </si>
+  <si>
+    <t>ajax\原生ajax\3-JSON格式.html</t>
+  </si>
+  <si>
+    <t>ajax\原生ajax\4-网络超时与网络异常.html</t>
+  </si>
+  <si>
+    <t>ajax\原生ajax\5-重复请求发送.html</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1184,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,13 +1220,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1490,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1845,7 +1887,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="16">
         <v>44879</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1885,10 +1927,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>44880</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C18" t="s">
@@ -1920,8 +1962,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
@@ -2018,10 +2060,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="19">
         <v>44883</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
@@ -2048,7 +2090,7 @@
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="8" t="s">
         <v>130</v>
       </c>
@@ -2184,10 +2226,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <v>44892</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
@@ -2217,7 +2259,7 @@
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="8" t="s">
         <v>166</v>
       </c>
@@ -2297,10 +2339,10 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="13">
         <v>44897</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="20" t="s">
         <v>196</v>
       </c>
       <c r="C38" t="s">
@@ -2324,7 +2366,7 @@
     </row>
     <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
@@ -2345,10 +2387,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <v>44898</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>195</v>
       </c>
       <c r="C40" t="s">
@@ -2372,7 +2414,7 @@
     </row>
     <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="8" t="s">
         <v>203</v>
       </c>
@@ -2397,11 +2439,11 @@
         <v>44899</v>
       </c>
     </row>
-    <row r="43" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+    <row r="43" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <v>44900</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="15" t="s">
         <v>209</v>
       </c>
       <c r="C43" t="s">
@@ -2420,8 +2462,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="8" t="s">
         <v>215</v>
       </c>
@@ -2438,11 +2481,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+    <row r="45" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
         <v>44901</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C45" t="s">
@@ -2473,8 +2516,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+    <row r="46" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="8" t="s">
         <v>230</v>
       </c>
@@ -2643,24 +2687,136 @@
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>44915</v>
       </c>
     </row>
+    <row r="61" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
+        <v>44920</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
+        <v>44922</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" t="s">
+        <v>267</v>
+      </c>
+      <c r="G67" t="s">
+        <v>268</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>44930</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2781,6 +2937,11 @@
     <hyperlink ref="F59" r:id="rId115" xr:uid="{4BC0AFD8-22A1-4430-92CF-944B0CA40514}"/>
     <hyperlink ref="H59" r:id="rId116" xr:uid="{C05723BC-937A-4434-B89A-CA8C126D4E37}"/>
     <hyperlink ref="J59" r:id="rId117" xr:uid="{60504B03-C8DD-4558-AFAB-17FBFFE2E9CD}"/>
+    <hyperlink ref="H67" r:id="rId118" xr:uid="{0420C961-11E3-41A7-8A53-CDAC98CB79AA}"/>
+    <hyperlink ref="I67" r:id="rId119" xr:uid="{7C0B8B15-F506-4D01-AB7C-513D5129B150}"/>
+    <hyperlink ref="J67" r:id="rId120" xr:uid="{7AC821E7-877E-4C4B-8C09-2978C36B1278}"/>
+    <hyperlink ref="K67" r:id="rId121" xr:uid="{FEBB56AF-A58D-4C18-B655-D0D3AD83A81B}"/>
+    <hyperlink ref="L67" r:id="rId122" xr:uid="{42E5E0C3-B376-48C2-ABD3-5642E5B8B25B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
